--- a/Income/SSNC_inc.xlsx
+++ b/Income/SSNC_inc.xlsx
@@ -2117,7 +2117,7 @@
         <v>0.4521</v>
       </c>
       <c r="E16" s="0" t="n">
-        <v>0.4484</v>
+        <v>0.4483</v>
       </c>
       <c r="F16" s="0" t="n">
         <v>0.4448</v>
@@ -2244,13 +2244,13 @@
         <v>0.2096</v>
       </c>
       <c r="E17" s="0" t="n">
-        <v>0.2036</v>
+        <v>0.2037</v>
       </c>
       <c r="F17" s="0" t="n">
         <v>0.1994</v>
       </c>
       <c r="G17" s="0" t="n">
-        <v>0.1973</v>
+        <v>0.1974</v>
       </c>
       <c r="H17" s="0" t="n">
         <v>0.1906</v>
@@ -2368,7 +2368,7 @@
         <v>0.1662</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>0.1504</v>
+        <v>0.1503</v>
       </c>
       <c r="E18" s="0" t="n">
         <v>0.1293</v>
@@ -2495,16 +2495,16 @@
         <v>0.1339</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>0.1221</v>
+        <v>0.122</v>
       </c>
       <c r="E19" s="0" t="n">
-        <v>0.1086</v>
+        <v>0.1085</v>
       </c>
       <c r="F19" s="0" t="n">
-        <v>0.0979</v>
+        <v>0.0978</v>
       </c>
       <c r="G19" s="0" t="n">
-        <v>0.0947</v>
+        <v>0.0946</v>
       </c>
       <c r="H19" s="0" t="n">
         <v>0.0783</v>
@@ -2622,16 +2622,16 @@
         <v>0.2315</v>
       </c>
       <c r="D20" s="0" t="n">
-        <v>0.2474</v>
+        <v>0.2468</v>
       </c>
       <c r="E20" s="0" t="n">
-        <v>0.2753</v>
+        <v>0.2747</v>
       </c>
       <c r="F20" s="0" t="n">
-        <v>0.2472</v>
+        <v>0.2466</v>
       </c>
       <c r="G20" s="0" t="n">
-        <v>0.2459</v>
+        <v>0.2454</v>
       </c>
       <c r="H20" s="0" t="n">
         <v>0.1905</v>
@@ -3648,16 +3648,16 @@
         <v>0.3734</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>0.3742</v>
+        <v>0.3774</v>
       </c>
       <c r="E28" s="0" t="n">
-        <v>0.3717</v>
+        <v>0.3749</v>
       </c>
       <c r="F28" s="0" t="n">
-        <v>0.3702</v>
+        <v>0.3735</v>
       </c>
       <c r="G28" s="0" t="n">
-        <v>0.3676</v>
+        <v>0.3708</v>
       </c>
       <c r="H28" s="0" t="n">
         <v>0.3615</v>
@@ -3775,16 +3775,16 @@
         <v>0.2538</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>0.2851</v>
+        <v>0.2845</v>
       </c>
       <c r="E29" s="0" t="n">
-        <v>0.3155</v>
+        <v>0.3149</v>
       </c>
       <c r="F29" s="0" t="n">
-        <v>0.2872</v>
+        <v>0.2867</v>
       </c>
       <c r="G29" s="0" t="n">
-        <v>0.2873</v>
+        <v>0.2867</v>
       </c>
       <c r="H29" s="0" t="n">
         <v>0.2363</v>
